--- a/flight_computer/v2/Bill of Material/flight computer v2 bom.xlsx
+++ b/flight_computer/v2/Bill of Material/flight computer v2 bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\internal-cubesat-boards\flight_computer\v2\Bill of Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A943EF5-7B6E-4B8B-AB06-52E56B6884CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63693185-2DA4-4FC8-8EBA-DF99249BB790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMD Components" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,538 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="171">
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1, C10, C100, C106, C109, </t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C4, C5, C6, C9, C11, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C28, C29, C51, C52, C53, C54, C55, C56, C57, C58, C59, C60, C61, C62, C63, C64, C65, C66, C67, C68, C69, C70, C71, C74, C75, C76, C77, C78, C79, C80, C81, C82, C83, C84, C85, C86, C88, C89, C90, C91, C92, C93, C96, C97, C99, C101, C104, C107, C110, C111, </t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603T104K5RAC7867/12700990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3, C7, C46, C47, C48, </t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/CGA3E1X7R1C105K080AC/3949775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C105, C108, </t>
+  </si>
+  <si>
+    <t>47u</t>
+  </si>
+  <si>
+    <t>Capacitor_Tantalum_SMD:CP_EIA-7343-43_Kemet-X</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/T541X227M016AH6710/3478654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12, C13, </t>
+  </si>
+  <si>
+    <t>10p</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603T100J5GAC7867/9924899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C24, C25, C26, C27, C32, C33, C34, C35, C42, </t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kemet/C0603T103K5RCL7867/2202506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB1, </t>
+  </si>
+  <si>
+    <t>Ferrite_Bead_Small</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/tdk-corporation/MPZ1608S601ATD25/5040321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1, J2, </t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_PicoBlade_53047-0510_1x05_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0530470510/242856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J3, </t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_PicoBlade_53047-1010_1x10_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0530471010/242861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5, </t>
+  </si>
+  <si>
+    <t>Connector_Hirose:Hirose_DF13C_CL535-0403-5-51_1x03-1MP_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13C-3P-1-25V-21/3907689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J9, </t>
+  </si>
+  <si>
+    <t>0781710004:MOLEX_0781710004</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0781710004/2424925?s=N4IgTCBcDaIOwA4CMckAYMBYQF0C%2BQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10, </t>
+  </si>
+  <si>
+    <t>Perovskite 3</t>
+  </si>
+  <si>
+    <t>Connector_Molex:Molex_PicoBlade_53047-1110_1x11_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0530471110/242862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J11, </t>
+  </si>
+  <si>
+    <t>GaAs Panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12, </t>
+  </si>
+  <si>
+    <t>GaAs Temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J13, </t>
+  </si>
+  <si>
+    <t>Perovskite 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14, </t>
+  </si>
+  <si>
+    <t>Perovskite 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J15, J16, J18, J19, J22, </t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Connector_Hirose:Hirose_DF13C_CL535-0402-2-51_1x02-1MP_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13-2P-1-25V-76/9170624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J20, </t>
+  </si>
+  <si>
+    <t>BUSS+</t>
+  </si>
+  <si>
+    <t>Connector_Hirose:Hirose_DF13C_CL535-0404-8-51_1x04-1MP_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13C-4P-1-25V-51/3977746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J21, </t>
+  </si>
+  <si>
+    <t>EPS Serial</t>
+  </si>
+  <si>
+    <t>Connector_Hirose:Hirose_DF13C_CL535-0406-3-51_1x06-1MP_P1.25mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13B-6P-1-25V-51/3977725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1, Q2, Q3, </t>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/anbon-semiconductor-int-l-limited/BSS138/16708474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R2, </t>
+  </si>
+  <si>
+    <t>4k7</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R71, R72, R73, R74, R75, R76, R77, R78, R80, </t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/TNPW060310K0FHTA/7354881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, R5, R6, R7, R8, R9, R14, R15, R22, R23, R24, R25, R30, R31, R42, R43, R46, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R16, R17, R32, R33, R52, </t>
+  </si>
+  <si>
+    <t>510m</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_1206_3216Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18, R19, R20, R21, R34, R35, R36, R37, </t>
+  </si>
+  <si>
+    <t>10M</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R56, R60, R64, R68, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R57, R61, R65, R69, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R81, </t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1, U2, </t>
+  </si>
+  <si>
+    <t>OPA2387</t>
+  </si>
+  <si>
+    <t>Package_SO:VSSOP-8_3.0x3.0mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/OPA2387DGKR/13627209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3, U10, </t>
+  </si>
+  <si>
+    <t>TLV7031DBV</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/TLV7031DBVR/10434768?s=N4IgTCBcDaICoBkBqB2ADAZgIwBEBCSIAugL5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6, </t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-14_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4012BPWR/1690715?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQB7KAbRAE4B2AZgA4IBdAgBwBcoQBlVgJwEsAdgHMQAX1EEATKRCIAJgBYADGGkNRQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7, </t>
+  </si>
+  <si>
+    <t>LT6654AHS6-3.3</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-6</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/LT6654AHS6-3-3-TRMPBF/2485815?s=N4IgTCBcDaIDYBcBsSCsAWAhgCwM5IFoBmAOiIGIEAnAWwAcAjAMxAF0BfIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U8, </t>
+  </si>
+  <si>
+    <t>MSP430FR5969IRGZR</t>
+  </si>
+  <si>
+    <t>MSP430FR5969IRGZR:QFN50P700X700X100-49N</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/MSP430FR59691IRGZR/5051667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U9, </t>
+  </si>
+  <si>
+    <t>74CBTLV3253PW,118</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-16_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/nexperia-usa-inc/74CBTLV3253PW-118/2530383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11, U12, U13, U14, U17, </t>
+  </si>
+  <si>
+    <t>INA190A4IDDFR</t>
+  </si>
+  <si>
+    <t>ul_INA190A4IDDFR:INA190A4IDDFR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/INA190A4IDDFR/11308738?s=N4IgTCBcDaIJIDkCCBGAnABiQFjgETwDEAlEAXQF8g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U18, U19, U20, U22, U23, U24, U25, U27, U28, U29, U30, U32, U33, U34, U35, U37, </t>
+  </si>
+  <si>
+    <t>ADG841YKSZ-500RL7</t>
+  </si>
+  <si>
+    <t>ul_ADG841YKSZ-500RL7:ADG841YKSZ-500RL7</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/ADG841YKSZ-500RL7/995409?s=N4IgTCBcDaIIIBEDiAOALARgJoGkDKAWgLQCsADGQEoAyA7CALoC%2BQA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21, U26, U31, U36, </t>
+  </si>
+  <si>
+    <t>CD4516B_PW_16</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4516BPW/1691567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U38, </t>
+  </si>
+  <si>
+    <t>CD4518BM96</t>
+  </si>
+  <si>
+    <t>ul_CD4518BM96:CD4518BM96</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4520BM96/1691583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U39, </t>
+  </si>
+  <si>
+    <t>74AHC1G08</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/SN74AHC1G08DBVR/276735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U40, U41, </t>
+  </si>
+  <si>
+    <t>CD4514BM</t>
+  </si>
+  <si>
+    <t>ul_CD4514BM:CD4514BM</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/CD4514BM/528397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U42, U43, U44, U45, U46, U47, U48, U49, U50, U51, U52, U53, U54, U55, U56, U57, U58, U59, </t>
+  </si>
+  <si>
+    <t>ADG839YKSZ-REEL7</t>
+  </si>
+  <si>
+    <t>ul_ADG839YKSZ-REEL7:ADG839YKSZ-REEL7</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/ADG839YKSZ-REEL7/995410?s=N4IgTCBcDaIIIBEDiAOAzATgJoGkDKAWgLQBKAomQDIDsIAugL5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1, </t>
+  </si>
+  <si>
+    <t>CM8V-T1A</t>
+  </si>
+  <si>
+    <t>CM8V-T1A-32:XTAL_CM8V-T1A-32.768KHZ-7PF-20PPM-TA-QC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/jauch-quartz/Q-0-032768-JTX310-7-10-T3-HMR-LF/8108094</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/kyocera-avx/KAM15CT70J106KT/17634162</t>
+  </si>
+  <si>
+    <t>External debug cables</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0151340501/6198151</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Length (mm)</t>
+  </si>
+  <si>
+    <t>Secondary payload</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0151341001/7928364</t>
+  </si>
+  <si>
+    <t>Perovskite connector</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/molex/0510211100/242851</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/SR732BTTDR51J/12749611?s=N4IgTCBcDaIMoCUDsBmMAhAKpgIggrAIwBSIAugL5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R55, R59, R63, R67, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R58, R62, R66, R70, R79, </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/KTR03EZPF3004/4051626</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/rohm-semiconductor/ESR03EZPF1004/4007144</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/susumu/RG1608N-431-W-T1/600588</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/susumu/RG1608N-271-W-T1/600583</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/susumu/RG1608N-121-W-T1/600575</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/CRCW060310M0FHEAP/5070695</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/susumu/RG1608P-471-B-T5/1240592</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-dale/TNPW06034K70BEEA/1606843</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>AEC-Q200</t>
+  </si>
+  <si>
+    <t>COTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	COTS</t>
+  </si>
+  <si>
+    <t>"Military"</t>
+  </si>
+  <si>
+    <t>CD4012BPWR</t>
+  </si>
+  <si>
+    <t>Sun Vector Sensor</t>
+  </si>
+  <si>
+    <t>Panel 3 Output</t>
+  </si>
+  <si>
+    <t>Panel 3 Input</t>
+  </si>
+  <si>
+    <t>Secondary Payload</t>
+  </si>
+  <si>
+    <t>External Debug</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -54,13 +580,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -339,38 +877,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <v>470</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="4">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>270</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="4">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3">
+        <v>430</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="4">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="4">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="4">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="4">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{69A144FE-C80F-4398-A060-1D02AD81A859}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{EDBE7057-E001-4CD6-AC62-9DA46AFA64F8}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{B3B252F7-A4A6-4797-891A-E9105DB7228D}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{B6CA3013-36A9-4EAB-BADC-CC0115C22E21}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{104B210A-84CC-452E-A312-11755EA27AB7}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{34906F6A-ADD8-4B8F-BA2C-46CF67E3E945}"/>
+    <hyperlink ref="F21" r:id="rId7" xr:uid="{772BC5B6-946E-407D-8FB9-96A63F0AE895}"/>
+    <hyperlink ref="F22" r:id="rId8" xr:uid="{51BC7C0E-1E7C-43BB-AF6D-98B2C8E1A9B0}"/>
+    <hyperlink ref="F23" r:id="rId9" xr:uid="{64A29B71-2A45-4FBF-A2DF-F79B1386327A}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{73E7FCBD-4605-496F-81AC-09F372D31A37}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{334744D7-9478-472B-9A8A-DA9AFDBD33F9}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{0B2AB073-0E7A-42CD-BD56-96677D8B70C5}"/>
+    <hyperlink ref="F24" r:id="rId13" xr:uid="{7FE4B810-B7AB-4F38-9277-709844864E06}"/>
+    <hyperlink ref="F26" r:id="rId14" xr:uid="{18EF1A38-8824-46B8-A2C0-2A61DF247E2A}"/>
+    <hyperlink ref="F28" r:id="rId15" xr:uid="{3E094C66-8A64-4963-986B-EF805138992F}"/>
+    <hyperlink ref="F10" r:id="rId16" xr:uid="{5AD69610-6A2E-4147-9326-49A5D2FC36B1}"/>
+    <hyperlink ref="F29" r:id="rId17" xr:uid="{5FFAE418-5D43-4D5D-9C26-EBD24E02C202}"/>
+    <hyperlink ref="F30" r:id="rId18" xr:uid="{98E66B6B-4876-4C4C-A562-F4768B5709D7}"/>
+    <hyperlink ref="F31" r:id="rId19" xr:uid="{B69B596A-2726-4EC1-B23E-3F78B700B238}"/>
+    <hyperlink ref="F32" r:id="rId20" xr:uid="{84C52903-176B-4D3A-99D4-D70F8E4CF953}"/>
+    <hyperlink ref="F33" r:id="rId21" xr:uid="{9C5952CB-F8AE-4BD8-AA49-B0111FC02F5E}"/>
+    <hyperlink ref="F34" r:id="rId22" xr:uid="{1BAB8537-6BAF-4B66-B53B-46636EC25408}"/>
+    <hyperlink ref="F35" r:id="rId23" xr:uid="{34192D9E-A8BB-4AFB-B44B-AB759D49FC94}"/>
+    <hyperlink ref="F36" r:id="rId24" xr:uid="{60D6EC94-73D4-4AD7-8E52-532F84718C91}"/>
+    <hyperlink ref="F37" r:id="rId25" xr:uid="{B2E53675-228B-44C4-847B-FA16EA549A33}"/>
+    <hyperlink ref="F39" r:id="rId26" xr:uid="{CC5BBAA5-0C71-449C-ADC4-5475EA718876}"/>
+    <hyperlink ref="F41" r:id="rId27" xr:uid="{094F4216-7A48-4C82-8296-8120C7555DF2}"/>
+    <hyperlink ref="F19" r:id="rId28" xr:uid="{487D5CB8-53DB-4698-A4DB-0D314B23B24E}"/>
+    <hyperlink ref="F38" r:id="rId29" xr:uid="{A9FB8912-7245-4408-A57F-B0FB71816205}"/>
+    <hyperlink ref="F40" r:id="rId30" xr:uid="{6CCF812F-F412-4D2F-A78D-F3E417C26ACB}"/>
+    <hyperlink ref="F12" r:id="rId31" xr:uid="{98E9F380-D381-4726-9D39-54E425CDD77A}"/>
+    <hyperlink ref="F18" r:id="rId32" xr:uid="{A9BCB4E3-9119-408E-8EB8-6C62CE00634F}"/>
+    <hyperlink ref="F17" r:id="rId33" xr:uid="{12C91832-2298-49E3-9DCB-2283F4BEA348}"/>
+    <hyperlink ref="F16" r:id="rId34" xr:uid="{28B17CEC-8977-48DA-9FE6-CD3931F1D06A}"/>
+    <hyperlink ref="F15" r:id="rId35" xr:uid="{D18FB047-D838-4BBA-A87E-5FB543B59B73}"/>
+    <hyperlink ref="F14" r:id="rId36" xr:uid="{6B5D192A-FFB2-4FE9-9E0B-C7FCDD42B2A9}"/>
+    <hyperlink ref="F13" r:id="rId37" xr:uid="{369B5B93-C821-4E56-98AC-8111DBF09760}"/>
+    <hyperlink ref="F11" r:id="rId38" xr:uid="{835B2E5E-0681-45E4-A03D-E7C6F2A4FAFC}"/>
+    <hyperlink ref="F9" r:id="rId39" xr:uid="{9E5DA08F-035E-441B-9698-C3C08C1E77D7}"/>
+    <hyperlink ref="F2" r:id="rId40" xr:uid="{9C7FAA2C-4197-40AB-9AE4-842A35FAED28}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0807B0-0835-4891-A55D-3C46F82EF2FA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{361B5AA2-6605-4783-A432-CCBD220617F0}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{0B218452-1FF3-495A-AAD1-5C070A3C6293}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{3C426812-CA5E-4E11-9660-D630CD25173A}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{18C9A98E-047C-40C4-80AE-F49142AC854C}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{B49F7D83-CA68-496A-9258-1A8C4630018C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279D0CBB-EDF0-4D3B-9AA8-D6FA1B7B015D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BFC050C6-8070-4BD2-8F54-1AACD40F181A}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{A090880E-0DD6-49F9-B4A4-6055324608D2}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{4F249616-1CDD-4D68-B988-12E28D697A7F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/flight_computer/v2/Bill of Material/flight computer v2 bom.xlsx
+++ b/flight_computer/v2/Bill of Material/flight computer v2 bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\internal-cubesat-boards\flight_computer\v2\Bill of Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63693185-2DA4-4FC8-8EBA-DF99249BB790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6D340-3362-4827-B29A-64DB5DA66CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,9 +158,6 @@
     <t>Connector_Molex:Molex_PicoBlade_53047-1110_1x11_P1.25mm_Vertical</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/molex/0530471110/242862</t>
-  </si>
-  <si>
     <t xml:space="preserve">J11, </t>
   </si>
   <si>
@@ -473,9 +470,6 @@
     <t>Perovskite connector</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/molex/0510211100/242851</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/koa-speer-electronics-inc/SR732BTTDR51J/12749611?s=N4IgTCBcDaIMoCUDsBmMAhAKpgIggrAIwBSIAugL5A</t>
   </si>
   <si>
@@ -540,6 +534,12 @@
   </si>
   <si>
     <t>External Debug</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13-11P-1-25DSA-05/15997313</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/hirose-electric-co-ltd/DF13-11S-1-25C/241760?s=N4IgjCBcoBw1oDGUBmBDANgZwKYBoQB7KAbRAHYAWGAJgDYQBdAgBwBcoQBlNgJwEsAdgHMQAXzEEapEABMUYAMxMxQA</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -904,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -944,7 +944,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -984,7 +984,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
@@ -1004,7 +1004,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>19</v>
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>22</v>
@@ -1044,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -1052,47 +1052,47 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4">
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <v>17</v>
@@ -1101,58 +1101,58 @@
         <v>470</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
         <v>76</v>
       </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="4">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="4">
         <v>4</v>
@@ -1161,18 +1161,18 @@
         <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4">
         <v>4</v>
@@ -1181,18 +1181,18 @@
         <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4">
         <v>4</v>
@@ -1201,73 +1201,73 @@
         <v>430</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="4">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>135</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="E19" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>34</v>
@@ -1295,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D21" t="s">
         <v>34</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" t="s">
         <v>38</v>
@@ -1323,13 +1323,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>34</v>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
       </c>
       <c r="D24" t="s">
         <v>34</v>
@@ -1357,291 +1357,291 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4">
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F26" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4">
         <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
       <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>97</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s">
+      <c r="F33" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>105</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4">
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="4">
         <v>16</v>
       </c>
       <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
         <v>113</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>120</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
       </c>
       <c r="C40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" t="s">
         <v>127</v>
       </c>
-      <c r="D40" t="s">
+      <c r="F40" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B41" s="4">
         <v>18</v>
       </c>
       <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" t="s">
         <v>131</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1696,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1736,41 +1736,41 @@
         <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1809,11 +1809,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{361B5AA2-6605-4783-A432-CCBD220617F0}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{0B218452-1FF3-495A-AAD1-5C070A3C6293}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{3C426812-CA5E-4E11-9660-D630CD25173A}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{18C9A98E-047C-40C4-80AE-F49142AC854C}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{B49F7D83-CA68-496A-9258-1A8C4630018C}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{18C9A98E-047C-40C4-80AE-F49142AC854C}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{B49F7D83-CA68-496A-9258-1A8C4630018C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1824,7 +1821,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1835,21 +1832,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1858,12 +1855,12 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1872,12 +1869,12 @@
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1886,14 +1883,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{BFC050C6-8070-4BD2-8F54-1AACD40F181A}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{A090880E-0DD6-49F9-B4A4-6055324608D2}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{4F249616-1CDD-4D68-B988-12E28D697A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/flight_computer/v2/Bill of Material/flight computer v2 bom.xlsx
+++ b/flight_computer/v2/Bill of Material/flight computer v2 bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\internal-cubesat-boards\flight_computer\v2\Bill of Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D6D340-3362-4827-B29A-64DB5DA66CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43E5684-DD1F-4C6B-88C7-94B0E088EB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
